--- a/biology/Médecine/Circa_instans/Circa_instans.xlsx
+++ b/biology/Médecine/Circa_instans/Circa_instans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Circa instans est un traité médiéval composé dans le milieu de l'école de médecine de Salerne entre 1150 et 1170, et traditionnellement attribué à Matthieu Platearius. Il s'agit d'un recueil de matière médicale (végétale, animale et minérale) dont les chapitres sont organisés dans un ordre alphabétique peu rigoureux. Le nom donné à l'œuvre est issu des deux premiers mots du prologue : « Circa instans negotium de simplicibus medicinis nostrum versatur propositum, […] »[1].
-L'histoire du texte reste assez obscure, et l'on sait peu de choses de son origine, de son auteur ou de ses sources. Mais le traité a connu un grand succès et une large diffusion : il a été recopié dans un nombre important de manuscrits et traduit dans de nombreuses langues vernaculaires (français, allemand, néerlandais, anglais, italien, catalan, provençal et peut-être même danois)[2].
-Le Circa instans, qui traitait initialement d'environ 250 simples, a été étendu et développé à l'aide d'autres sources vers la fin du XIIIe siècle dans le Tractatus de herbis. Ce texte, qui contient entre 500 et 900 chapitres selon les versions, a été ensuite traduit en français au XVe siècle sous le nom de Livre des simples médecines, œuvre dont on connait pas moins de 25 manuscrits[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Circa instans est un traité médiéval composé dans le milieu de l'école de médecine de Salerne entre 1150 et 1170, et traditionnellement attribué à Matthieu Platearius. Il s'agit d'un recueil de matière médicale (végétale, animale et minérale) dont les chapitres sont organisés dans un ordre alphabétique peu rigoureux. Le nom donné à l'œuvre est issu des deux premiers mots du prologue : « Circa instans negotium de simplicibus medicinis nostrum versatur propositum, […] ».
+L'histoire du texte reste assez obscure, et l'on sait peu de choses de son origine, de son auteur ou de ses sources. Mais le traité a connu un grand succès et une large diffusion : il a été recopié dans un nombre important de manuscrits et traduit dans de nombreuses langues vernaculaires (français, allemand, néerlandais, anglais, italien, catalan, provençal et peut-être même danois).
+Le Circa instans, qui traitait initialement d'environ 250 simples, a été étendu et développé à l'aide d'autres sources vers la fin du XIIIe siècle dans le Tractatus de herbis. Ce texte, qui contient entre 500 et 900 chapitres selon les versions, a été ensuite traduit en français au XVe siècle sous le nom de Livre des simples médecines, œuvre dont on connait pas moins de 25 manuscrits.
 </t>
         </is>
       </c>
